--- a/resources/example_sds_dataset/samples.xlsx
+++ b/resources/example_sds_dataset/samples.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,41 +533,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sam-sample_data_1</t>
+          <t>sam-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sub-3</t>
+          <t>sub-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sam-sample_data_1</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>Experimental</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>DCE-MRI Contrast Image sam-1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>breast tissue</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -582,7 +586,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sam-sample_data_2</t>
+          <t>sam-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -592,31 +596,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sam-sample_data_2</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>Experimental</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>DCE-MRI Contrast Image sam-2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>breast tissue</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -631,41 +639,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sam-sample_data_3</t>
+          <t>sam-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sub-1</t>
+          <t>sub-2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sam-sample_data_3</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>Experimental</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>DCE-MRI Contrast Image sam-1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>breast tissue</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -680,41 +692,45 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sam-sample_data_4</t>
+          <t>sam-2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sub-1</t>
+          <t>sub-2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sam-sample_data_4</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>Experimental</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>DCE-MRI Contrast Image sam-2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>breast tissue</t>
+          <t>Breast</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -726,153 +742,6 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>sam-1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sub-2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sam-1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>experimental</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>breast tissue</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>sam-2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sub-2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>sam-2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>experimental</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>breast tissue</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sam-3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sub-2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>sam-3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>experimental</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>tissue</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>breast tissue</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
